--- a/biology/Botanique/Buglosse_des_champs/Buglosse_des_champs.xlsx
+++ b/biology/Botanique/Buglosse_des_champs/Buglosse_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anchusa arvensis
 La Buglosse des champs (Anchusa arvensis) est une espèce de plantes herbacées de la famille des Boraginaceae. Elle est originaire d'Europe et pousse souvent au bord des cultures.
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lycopsis arvensis L.</t>
         </is>
@@ -542,11 +556,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont couvertes de poils raides et les fleurs sont bleues, tirant vers le blanc au fond de la corolle. La plante ne dépasse guère 20 cm de hauteur.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Buglosse_des_champs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buglosse_des_champs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : bleu
 Période de floraison : juin-octobre
 Inflorescence : racème de cymes unipares scorpioïdes
@@ -563,33 +614,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Buglosse_des_champs</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Buglosse_des_champs</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (16 oct. 2019)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (16 oct. 2019) (Attention liste brute contenant possiblement des synonymes) :
 Anchusa arvensis subsp. arvensis
 Anchusa arvensis subsp. occidentalis Nordh.
 Anchusa arvensis subsp. orientalis (L.) Nordh.</t>
